--- a/CDE_ID_detective_revamp/in/SAMPLE_larger_sprint_2020-12-16.xlsx
+++ b/CDE_ID_detective_revamp/in/SAMPLE_larger_sprint_2020-12-16.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmaefos\Code Stuffs\CDE_ID_detective_revamp\in\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmaefos\Code Stuffs\CDE_detective\CDE_ID_detective_revamp\in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6838F88E-166C-417A-9803-A2AD07B5E86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE0C0F1-C93A-49AE-A44F-7B7E03F94D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59190" yWindow="9930" windowWidth="21255" windowHeight="15060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38505" yWindow="6465" windowWidth="30660" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -21,13 +21,13 @@
   </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2451" uniqueCount="1045">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2522" uniqueCount="1074">
   <si>
     <t>Variable / Field Name</t>
   </si>
@@ -3207,6 +3207,105 @@
   </si>
   <si>
     <t>Grand Total</t>
+  </si>
+  <si>
+    <t>SDOH_Childcare</t>
+  </si>
+  <si>
+    <t>SDOH_Clothing</t>
+  </si>
+  <si>
+    <t>SDOH_Food</t>
+  </si>
+  <si>
+    <t>SDOH_Housing</t>
+  </si>
+  <si>
+    <t>SDOH_Internet</t>
+  </si>
+  <si>
+    <t>SDOH_Phone</t>
+  </si>
+  <si>
+    <t>SDOH_Transportation</t>
+  </si>
+  <si>
+    <t>SDOH_Utilities</t>
+  </si>
+  <si>
+    <t>SDOH_MedHlthcare</t>
+  </si>
+  <si>
+    <t>SDOH_Other</t>
+  </si>
+  <si>
+    <t>SDOH_OtherSpecify</t>
+  </si>
+  <si>
+    <t>SDOH_NotAnswer</t>
+  </si>
+  <si>
+    <t>SDOH</t>
+  </si>
+  <si>
+    <t>Test SDOH search for code</t>
+  </si>
+  <si>
+    <t>Numeric Values</t>
+  </si>
+  <si>
+    <t>Alphaumeric Values</t>
+  </si>
+  <si>
+    <t>In the past year, have you or any family members you live with been unable to get any of the following when it was really needed? 
+Childcare</t>
+  </si>
+  <si>
+    <t>In the past year, have you or any family members you live with been unable to get any of the following when it was really needed? 
+Clothing</t>
+  </si>
+  <si>
+    <t>In the past year, have you or any family members you live with been unable to get any of the following when it was really needed? 
+Food</t>
+  </si>
+  <si>
+    <t>In the past year, have you or any family members you live with been unable to get any of the following when it was really needed? 
+Housing</t>
+  </si>
+  <si>
+    <t>In the past year, have you or any family members you live with been unable to get any of the following when it was really needed? 
+Internet/ Broadband</t>
+  </si>
+  <si>
+    <t>In the past year, have you or any family members you live with been unable to get any of the following when it was really needed? 
+Phone (e.g., mobile or landline)</t>
+  </si>
+  <si>
+    <t>In the past year, have you or any family members you live with been unable to get any of the following when it was really needed? 
+Transportation (e.g., private or public)</t>
+  </si>
+  <si>
+    <t>In the past year, have you or any family members you live with been unable to get any of the following when it was really needed? 
+Utilities (e.g., gas, electric, propane, natural gas, etc.)</t>
+  </si>
+  <si>
+    <t>In the past year, have you or any family members you live with been unable to get any of the following when it was really needed? 
+Medicine or any health care (medical, dental, mental health, vision)</t>
+  </si>
+  <si>
+    <t>In the past year, have you or any family members you live with been unable to get any of the following when it was really needed? 
+Other</t>
+  </si>
+  <si>
+    <t>In the past year, have you or any family members you live with been unable to get any of the following when it was really needed? 
+If other, specify</t>
+  </si>
+  <si>
+    <t>In the past year, have you or any family members you live with been unable to get any of the following when it was really needed? 
+Prefer not to answer</t>
+  </si>
+  <si>
+    <t>0 = Unchecked; 1 = Checked</t>
   </si>
 </sst>
 </file>
@@ -3234,12 +3333,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -3254,7 +3359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3262,6 +3367,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13989,7 +14095,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3D87AA87-FF2A-433C-85B7-20975957B6FA}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3D87AA87-FF2A-433C-85B7-20975957B6FA}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A51" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -14720,7 +14826,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -14737,7 +14843,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -22788,77 +22894,243 @@
       </c>
     </row>
     <row r="418" spans="1:18" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A418" s="2"/>
-      <c r="B418" s="2"/>
-      <c r="D418" s="2"/>
-      <c r="E418" s="2"/>
+      <c r="A418" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B418" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C418" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D418" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E418" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F418" t="s">
+        <v>1073</v>
+      </c>
       <c r="R418" s="2"/>
     </row>
     <row r="419" spans="1:18" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A419" s="2"/>
-      <c r="B419" s="2"/>
-      <c r="D419" s="2"/>
-      <c r="E419" s="2"/>
+      <c r="A419" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C419" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D419" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E419" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F419" t="s">
+        <v>1073</v>
+      </c>
       <c r="R419" s="2"/>
     </row>
     <row r="420" spans="1:18" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A420" s="2"/>
-      <c r="B420" s="2"/>
-      <c r="D420" s="2"/>
-      <c r="E420" s="2"/>
+      <c r="A420" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C420" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D420" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E420" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F420" t="s">
+        <v>1073</v>
+      </c>
     </row>
     <row r="421" spans="1:18" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A421" s="2"/>
-      <c r="B421" s="2"/>
-      <c r="D421" s="2"/>
-      <c r="E421" s="2"/>
+      <c r="A421" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C421" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D421" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E421" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F421" t="s">
+        <v>1073</v>
+      </c>
     </row>
     <row r="422" spans="1:18" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A422" s="2"/>
-      <c r="B422" s="2"/>
-      <c r="D422" s="2"/>
-      <c r="E422" s="2"/>
+      <c r="A422" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B422" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C422" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D422" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E422" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F422" t="s">
+        <v>1073</v>
+      </c>
     </row>
     <row r="423" spans="1:18" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A423" s="2"/>
-      <c r="B423" s="2"/>
-      <c r="D423" s="2"/>
+      <c r="A423" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C423" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D423" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E423" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F423" t="s">
+        <v>1073</v>
+      </c>
     </row>
     <row r="424" spans="1:18" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A424" s="2"/>
-      <c r="B424" s="2"/>
-      <c r="D424" s="2"/>
-      <c r="E424" s="2"/>
+      <c r="A424" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C424" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D424" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E424" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F424" t="s">
+        <v>1073</v>
+      </c>
     </row>
     <row r="425" spans="1:18" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A425" s="2"/>
-      <c r="B425" s="2"/>
-      <c r="D425" s="2"/>
-      <c r="E425" s="2"/>
+      <c r="A425" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B425" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C425" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D425" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E425" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F425" t="s">
+        <v>1073</v>
+      </c>
     </row>
     <row r="426" spans="1:18" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A426" s="2"/>
-      <c r="B426" s="2"/>
-      <c r="D426" s="2"/>
-      <c r="E426" s="2"/>
+      <c r="A426" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C426" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D426" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E426" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F426" t="s">
+        <v>1073</v>
+      </c>
     </row>
     <row r="427" spans="1:18" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A427" s="2"/>
-      <c r="B427" s="2"/>
-      <c r="D427" s="2"/>
-      <c r="E427" s="2"/>
+      <c r="A427" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C427" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D427" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E427" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F427" t="s">
+        <v>1073</v>
+      </c>
     </row>
     <row r="428" spans="1:18" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A428" s="2"/>
-      <c r="B428" s="2"/>
-      <c r="D428" s="2"/>
-      <c r="E428" s="2"/>
+      <c r="A428" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C428" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D428" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E428" s="2" t="s">
+        <v>1071</v>
+      </c>
     </row>
     <row r="429" spans="1:18" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A429" s="2"/>
-      <c r="B429" s="2"/>
-      <c r="D429" s="2"/>
-      <c r="E429" s="2"/>
+      <c r="A429" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C429" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D429" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E429" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F429" t="s">
+        <v>1073</v>
+      </c>
     </row>
     <row r="430" spans="1:18" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A430" s="2"/>
